--- a/excel/Plantilla-Items.xlsx
+++ b/excel/Plantilla-Items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\github\apiPOS-Official\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A15715-8D46-4B1D-B5E4-5DC0679D33F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94211E8F-2081-4BFF-B44D-E91363A6FEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hhOzpNyo3JCWR9/uzi4PW2gPh3gFfTVeXBr6Ae5RYPA4+Qv2CbQp2gS6x+YhTaxyQo9LPcwbFXmVpydpQ1zeNg==" workbookSaltValue="QhDUFpAiWiHQWUkpC4dYnw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
